--- a/시나리오/연출/12월 4일 연출 테이블.xlsx
+++ b/시나리오/연출/12월 4일 연출 테이블.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hosung\게임기획\진심모드\시나리오\연출\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Last-Night\시나리오\연출\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F477198-353D-4374-A472-C0CE0A290A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB50E02B-A6D7-49CB-80EB-AF75D55A0497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="4200" windowWidth="28800" windowHeight="15435" xr2:uid="{80434533-D0AB-4535-AD6A-7AE7E871B2BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{80434533-D0AB-4535-AD6A-7AE7E871B2BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +85,18 @@
   </si>
   <si>
     <t>12월 4일 오전 연출 워드 파일에 어느 부분에서 몇번 번호의 연출이 사용되는지 기입 해 놓았음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40768788-F874-4A73-82AA-1943E0F7C353}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -466,7 +475,7 @@
     <col min="3" max="3" width="88.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -487,8 +496,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -498,8 +510,11 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -509,8 +524,11 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -520,8 +538,11 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -531,8 +552,11 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -542,8 +566,11 @@
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>11</v>
       </c>
